--- a/Documents/数据字典.xlsx
+++ b/Documents/数据字典.xlsx
@@ -3,12 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0089059A-BB93-4C80-8C08-7F1ED5BDD8A5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D13A71C-E7BA-40D6-BDD2-57EF081396F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11640" yWindow="-120" windowWidth="11760" windowHeight="20130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="86">
   <si>
     <t>字段名</t>
   </si>
@@ -94,10 +96,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>class</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>admin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -207,6 +205,239 @@
   </si>
   <si>
     <t>工号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_class._id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>semester</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StudentId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StudentName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CourseId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CourseName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TeacherName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TeacherId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Semester</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClassId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClassName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Source</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql语句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE 
+    ALGORITHM = UNDEFINED 
+    DEFINER = `root`@`localhost` 
+    SQL SECURITY DEFINER
+VIEW `c_t_s` (`StudentId` , `StudentName` , `CourseId` , `CourseName` , `TeacherId` , `TeacherName` , `Semester` , `ClassId` , `ClassName` , `Source`) AS
+    SELECT 
+        `student`.`id` AS `id`,
+        `student`.`name` AS `name`,
+        `course`.`id` AS `id`,
+        `course`.`name` AS `name`,
+        `teacher`.`id` AS `id`,
+        `teacher`.`name` AS `name`,
+        `course_teach_stu`.`semester` AS `semester`,
+        `_class`.`_id` AS `_id`,
+        `_class`.`name` AS `Name`,
+        `course_teach_stu`.`source` AS `source`
+    FROM
+        ((((`_class`
+        JOIN `course`)
+        JOIN `teacher`)
+        JOIN `student`)
+        JOIN `course_teach_stu`)
+    WHERE
+        ((`course`.`id` = `course_teach_stu`.`course`)
+            AND (`teacher`.`id` = `course_teach_stu`.`teach`)
+            AND (`student`.`id` = `course_teach_stu`.`stu`)
+            AND (`student`.`_class` = `_class`.`_id`))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_t_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将表的数据根据外键组合为一个大表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gavg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gmax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gmin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PassNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PassRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_semes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE 
+    ALGORITHM = UNDEFINED 
+    DEFINER = `root`@`localhost` 
+    SQL SECURITY DEFINER
+VIEW `class_semes` (`ClassId` , `ClassName` , `Semester` , `CourseName` , `GAvg` , `GMax` , `GMin` , `PassNumber` , `PassRate`) AS
+    SELECT 
+        `c_t_s`.`ClassId` AS `ClassId`,
+        `c_t_s`.`ClassName` AS `ClassName`,
+        `c_t_s`.`Semester` AS `Semester`,
+        `c_t_s`.`CourseName` AS `CourseName`,
+        AVG(`c_t_s`.`Source`) AS `GAvg`,
+        MAX(`c_t_s`.`Source`) AS `GMax`,
+        MIN(`c_t_s`.`Source`) AS `GMin`,
+        `a`.`PassNumber` AS `PassNumber`,
+        `a`.`PassRate` AS `PassRate`
+    FROM
+        (`c_t_s`
+        JOIN (SELECT 
+            `c_t_s`.`ClassName` AS `ClassName`,
+                `c_t_s`.`CourseName` AS `CourseName`,
+                SUM((CASE
+                    WHEN (`c_t_s`.`Source` &gt;= 60) THEN 1
+                    ELSE 0
+                END)) AS `PassNumber`,
+                (100 * (SUM((CASE
+                    WHEN (`c_t_s`.`Source` &gt;= 60) THEN 1
+                    ELSE 0
+                END)) / COUNT(0))) AS `PassRate`
+        FROM
+            `c_t_s`
+        GROUP BY `c_t_s`.`Semester` , `c_t_s`.`CourseName` , `c_t_s`.`ClassName`) `a`)
+    WHERE
+        ((`a`.`ClassName` = `c_t_s`.`ClassName`)
+            AND (`a`.`CourseName` = `c_t_s`.`CourseName`))
+    GROUP BY `c_t_s`.`Semester` , `c_t_s`.`CourseName` , `c_t_s`.`ClassName`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stu_semes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE 
+    ALGORITHM = UNDEFINED 
+    DEFINER = `root`@`localhost` 
+    SQL SECURITY DEFINER
+VIEW `stu_semes` (`StudentId` , `StudentName` , `ClassName` , `Semester` , `GAvg`) AS
+    SELECT 
+        `c_t_s`.`StudentId` AS `StudentId`,
+        `c_t_s`.`StudentName` AS `StudentName`,
+        `c_t_s`.`ClassName` AS `ClassName`,
+        `c_t_s`.`Semester` AS `Semester`,
+        AVG(`c_t_s`.`Source`) AS `Avg(Source)`
+    FROM
+        `c_t_s`
+    GROUP BY `c_t_s`.`Semester` , `c_t_s`.`StudentId`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按班级、课程、学期计算平均分、最高分、最低分、及格人数、及格率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照学生、学期计算学生全部课程平均分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -214,7 +445,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,18 +460,144 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor theme="7"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="7"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="7"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="7"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="7"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="7"/>
+      </top>
+      <bottom style="thin">
+        <color theme="7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="7"/>
+      </top>
+      <bottom style="thin">
+        <color theme="7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="7"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="7"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="7"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -250,12 +607,67 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -436,7 +848,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E4D55A29-111E-4157-A166-1681E1250D7B}" name="表3" displayName="表3" ref="A2:H10" headerRowDxfId="46" dataDxfId="44" totalsRowDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E4D55A29-111E-4157-A166-1681E1250D7B}" name="表3" displayName="表3" ref="A2:H10" headerRowDxfId="52" dataDxfId="51" totalsRowDxfId="50">
   <autoFilter ref="A2:H10" xr:uid="{FA8C8FB4-90BD-4724-9E59-88DACA01C6B1}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -448,21 +860,21 @@
     <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{4737D2A1-93C6-4BEC-AB08-367742B0FDE3}" name="字段名" totalsRowLabel="汇总" dataDxfId="52"/>
-    <tableColumn id="2" xr3:uid="{97B99319-273A-4B51-BFC3-11E64EEB254F}" name="数据类型" dataDxfId="51"/>
-    <tableColumn id="3" xr3:uid="{38645618-C245-45B7-8F9F-0E59698F5D87}" name="默认值" dataDxfId="50"/>
-    <tableColumn id="4" xr3:uid="{9233F8B3-23D8-43A7-9425-467C346B044A}" name="允许非空" dataDxfId="49"/>
-    <tableColumn id="5" xr3:uid="{F3B0AC5F-237C-41CD-BE27-D211B2F85C15}" name="自动递增" dataDxfId="48"/>
-    <tableColumn id="6" xr3:uid="{29BB04A3-7C8A-496C-A45D-78B8C49960CC}" name="备注" totalsRowFunction="count" dataDxfId="47"/>
-    <tableColumn id="7" xr3:uid="{DF05FACB-983E-4FE0-B167-7CDF1FADCDB2}" name="是否唯一" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="8" xr3:uid="{E7503033-E4BE-421D-86EE-C05453C6E1F5}" name="外键" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{4737D2A1-93C6-4BEC-AB08-367742B0FDE3}" name="字段名" totalsRowLabel="汇总" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{97B99319-273A-4B51-BFC3-11E64EEB254F}" name="数据类型" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{38645618-C245-45B7-8F9F-0E59698F5D87}" name="默认值" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{9233F8B3-23D8-43A7-9425-467C346B044A}" name="允许非空" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{F3B0AC5F-237C-41CD-BE27-D211B2F85C15}" name="自动递增" dataDxfId="45"/>
+    <tableColumn id="6" xr3:uid="{29BB04A3-7C8A-496C-A45D-78B8C49960CC}" name="备注" totalsRowFunction="count" dataDxfId="44"/>
+    <tableColumn id="7" xr3:uid="{DF05FACB-983E-4FE0-B167-7CDF1FADCDB2}" name="是否唯一" dataDxfId="43" totalsRowDxfId="42"/>
+    <tableColumn id="8" xr3:uid="{E7503033-E4BE-421D-86EE-C05453C6E1F5}" name="外键" dataDxfId="41" totalsRowDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{68E05DB3-D413-4F59-9E60-1131B3F31054}" name="表4" displayName="表4" ref="A12:H18" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{68E05DB3-D413-4F59-9E60-1131B3F31054}" name="表4" displayName="表4" ref="A12:H18" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="A12:H18" xr:uid="{A4A7ACA9-816C-42E7-90A7-5123CB9BB820}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -474,22 +886,22 @@
     <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{4CCA6F0C-92EC-4210-BF17-E9A6228A7E9A}" name="字段名" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{AA273B48-663B-42BE-A73C-BAE3D2A744F5}" name="数据类型" dataDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{F0079CC4-F3A1-4BB2-AA26-E82C694671D5}" name="默认值" dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{12AC68AF-00C4-4B53-8DA1-6A9FE7101FD5}" name="允许非空" dataDxfId="40"/>
-    <tableColumn id="5" xr3:uid="{96862788-89F9-4685-9B81-F775DEE21D8E}" name="自动递增" dataDxfId="39"/>
-    <tableColumn id="6" xr3:uid="{E3024C72-595F-486B-AB4F-932494CDC2CE}" name="备注" dataDxfId="38"/>
-    <tableColumn id="7" xr3:uid="{61D17104-3D16-4DB8-AA5F-FFBAF68E2526}" name="是否唯一" dataDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{8AF1A363-EE28-4306-A89E-F958E0EB24B2}" name="外键" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{4CCA6F0C-92EC-4210-BF17-E9A6228A7E9A}" name="字段名" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{AA273B48-663B-42BE-A73C-BAE3D2A744F5}" name="数据类型" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{F0079CC4-F3A1-4BB2-AA26-E82C694671D5}" name="默认值" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{12AC68AF-00C4-4B53-8DA1-6A9FE7101FD5}" name="允许非空" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{96862788-89F9-4685-9B81-F775DEE21D8E}" name="自动递增" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{E3024C72-595F-486B-AB4F-932494CDC2CE}" name="备注" dataDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{61D17104-3D16-4DB8-AA5F-FFBAF68E2526}" name="是否唯一" dataDxfId="31"/>
+    <tableColumn id="8" xr3:uid="{8AF1A363-EE28-4306-A89E-F958E0EB24B2}" name="外键" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A555E436-4B12-4ABC-AB4C-8EBADDB4D1AC}" name="表6" displayName="表6" ref="A21:H26" totalsRowShown="0" headerRowDxfId="28" dataDxfId="29">
-  <autoFilter ref="A21:H26" xr:uid="{98CC07D9-796F-48E4-8FC7-1872EED47168}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A555E436-4B12-4ABC-AB4C-8EBADDB4D1AC}" name="表6" displayName="表6" ref="A21:H27" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="A21:H27" xr:uid="{98CC07D9-796F-48E4-8FC7-1872EED47168}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -500,13 +912,13 @@
     <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{96937228-76BA-4EBD-B078-82B482AE0614}" name="字段名" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{C4CAD201-407A-4508-A655-2EF0D8BF36CB}" name="数据类型" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{1EA86E1B-8188-4DD5-B32A-1F1399FB6D7F}" name="默认值" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{CBF2B7C6-49ED-4DBD-AAA6-28DB4A597B17}" name="允许非空" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{8AB4A009-6286-4A5F-8226-079C36CF3762}" name="自动递增" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{0DE2CE82-6197-4407-B613-D20F5BCF0139}" name="备注" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{EDF78B5D-1A55-4584-98A4-680B5410432B}" name=" 是否唯一" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{96937228-76BA-4EBD-B078-82B482AE0614}" name="字段名" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{C4CAD201-407A-4508-A655-2EF0D8BF36CB}" name="数据类型" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{1EA86E1B-8188-4DD5-B32A-1F1399FB6D7F}" name="默认值" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{CBF2B7C6-49ED-4DBD-AAA6-28DB4A597B17}" name="允许非空" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{8AB4A009-6286-4A5F-8226-079C36CF3762}" name="自动递增" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{0DE2CE82-6197-4407-B613-D20F5BCF0139}" name="备注" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{EDF78B5D-1A55-4584-98A4-680B5410432B}" name=" 是否唯一" dataDxfId="21"/>
     <tableColumn id="8" xr3:uid="{1AF6ECD8-CA99-493C-85C1-9E37A4B042AA}" name="外键" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -540,8 +952,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{83065BE0-C3D0-476E-88B1-80BB85A7170C}" name="表8" displayName="表8" ref="A38:H43" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A38:H43" xr:uid="{7B3CD7F1-113A-4580-8E96-7E04A17B855E}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{83065BE0-C3D0-476E-88B1-80BB85A7170C}" name="表8" displayName="表8" ref="A38:H44" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A38:H44" xr:uid="{7B3CD7F1-113A-4580-8E96-7E04A17B855E}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -828,15 +1240,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.21875" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.21875" style="1" customWidth="1"/>
     <col min="4" max="5" width="11.21875" style="1" customWidth="1"/>
@@ -847,16 +1259,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -878,10 +1290,10 @@
         <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -891,6 +1303,9 @@
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
@@ -905,8 +1320,11 @@
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="F4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -916,8 +1334,11 @@
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D5" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="F5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -927,8 +1348,11 @@
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D6" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="F6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>9</v>
@@ -947,18 +1371,21 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
@@ -966,26 +1393,29 @@
       <c r="C9" s="1">
         <v>0</v>
       </c>
+      <c r="D9" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="F9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1007,10 +1437,10 @@
         <v>5</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1020,6 +1450,9 @@
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D13" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="E13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1034,8 +1467,11 @@
       <c r="B14" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D14" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="F14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>9</v>
@@ -1048,8 +1484,11 @@
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D15" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="F15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1059,8 +1498,11 @@
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D16" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="F16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1076,7 +1518,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>8</v>
@@ -1084,21 +1526,24 @@
       <c r="C18" s="1">
         <v>0</v>
       </c>
+      <c r="D18" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="F18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="A20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -1120,10 +1565,10 @@
         <v>5</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1133,6 +1578,9 @@
       <c r="B22" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D22" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="E22" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1595,11 @@
       <c r="B23" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D23" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="F23" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>9</v>
@@ -1161,8 +1612,11 @@
       <c r="B24" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D24" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="F24" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1172,13 +1626,16 @@
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D25" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="F25" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>8</v>
@@ -1186,21 +1643,40 @@
       <c r="C26" s="1">
         <v>0</v>
       </c>
+      <c r="D26" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="F26" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="A29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -1222,10 +1698,10 @@
         <v>5</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1250,7 +1726,7 @@
         <v>11</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>9</v>
@@ -1264,31 +1740,31 @@
         <v>11</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F34" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -1310,10 +1786,10 @@
         <v>5</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1323,6 +1799,9 @@
       <c r="B39" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D39" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="E39" s="1" t="s">
         <v>9</v>
       </c>
@@ -1332,49 +1811,49 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F42" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>8</v>
@@ -1383,11 +1862,107 @@
         <v>9</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H48" s="7"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A46:H46"/>
     <mergeCell ref="A20:H20"/>
     <mergeCell ref="A37:H37"/>
     <mergeCell ref="A29:H29"/>
@@ -1405,4 +1980,404 @@
     <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{915EF717-5961-462B-93CA-47A1E015A4F3}">
+  <dimension ref="A1:L17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="B10:J10"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94CB68ED-14D4-45AC-B69D-FA124908CBFC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>